--- a/Veille/FileExample/spire_pivottable.xlsx
+++ b/Veille/FileExample/spire_pivottable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
   <si>
     <t>Departments</t>
   </si>
@@ -58,85 +58,109 @@
     <t>Nombre de Names</t>
   </si>
   <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2021 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 2</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Fred Nurk 3</t>
+  </si>
+  <si>
+    <t>over 30</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 4</t>
+  </si>
+  <si>
+    <t>John Doe 5</t>
+  </si>
+  <si>
+    <t>Hans Meier 6</t>
+  </si>
+  <si>
+    <t>Fred Nurk 7</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Fred Nurk 8</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>Hans Meier 9</t>
+  </si>
+  <si>
+    <t>Fred Nurk 10</t>
+  </si>
+  <si>
+    <t>Hans Meier 11</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 12</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Fred Nurk 13</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 14</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 15</t>
+  </si>
+  <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>Ivan Horvat 2</t>
-  </si>
-  <si>
-    <t>Purchasing</t>
-  </si>
-  <si>
-    <t>John Doe 3</t>
-  </si>
-  <si>
-    <t>11-20</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Fred Nurk 4</t>
-  </si>
-  <si>
-    <t>over 30</t>
-  </si>
-  <si>
-    <t>John Doe 5</t>
-  </si>
-  <si>
-    <t>Fred Nurk 6</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 7</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 8</t>
-  </si>
-  <si>
-    <t>21-30</t>
-  </si>
-  <si>
-    <t>Fred Nurk 9</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 10</t>
-  </si>
-  <si>
-    <t>John Doe 11</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 12</t>
-  </si>
-  <si>
-    <t>John Doe 13</t>
-  </si>
-  <si>
-    <t>John Doe 14</t>
-  </si>
-  <si>
-    <t>Fred Nurk 15</t>
-  </si>
-  <si>
     <t>Ivan Horvat 16</t>
   </si>
   <si>
     <t>Ivan Horvat 17</t>
   </si>
   <si>
-    <t>John Doe 18</t>
-  </si>
-  <si>
-    <t>Fred Nurk 19</t>
-  </si>
-  <si>
-    <t>Hans Meier 20</t>
+    <t>Ivan Horvat 18</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 19</t>
+  </si>
+  <si>
+    <t>Fred Nurk 20</t>
   </si>
   <si>
     <t>Ivan Horvat 21</t>
@@ -148,223 +172,223 @@
     <t>Fred Nurk 23</t>
   </si>
   <si>
-    <t>John Doe 24</t>
-  </si>
-  <si>
-    <t>Hans Meier 25</t>
+    <t>Hans Meier 24</t>
+  </si>
+  <si>
+    <t>John Doe 25</t>
   </si>
   <si>
     <t>Fred Nurk 26</t>
   </si>
   <si>
-    <t>Fred Nurk 27</t>
-  </si>
-  <si>
-    <t>John Doe 28</t>
-  </si>
-  <si>
-    <t>Fred Nurk 29</t>
-  </si>
-  <si>
-    <t>John Doe 30</t>
+    <t>John Doe 27</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 28</t>
+  </si>
+  <si>
+    <t>John Doe 29</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 30</t>
   </si>
   <si>
     <t>Fred Nurk 31</t>
   </si>
   <si>
-    <t>Fred Nurk 32</t>
-  </si>
-  <si>
-    <t>Hans Meier 33</t>
-  </si>
-  <si>
-    <t>John Doe 34</t>
+    <t>John Doe 32</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 33</t>
+  </si>
+  <si>
+    <t>Fred Nurk 34</t>
   </si>
   <si>
     <t>Hans Meier 35</t>
   </si>
   <si>
-    <t>Fred Nurk 36</t>
-  </si>
-  <si>
-    <t>Fred Nurk 37</t>
+    <t>Ivan Horvat 36</t>
+  </si>
+  <si>
+    <t>John Doe 37</t>
   </si>
   <si>
     <t>Ivan Horvat 38</t>
   </si>
   <si>
-    <t>Ivan Horvat 39</t>
+    <t>Fred Nurk 39</t>
   </si>
   <si>
     <t>Hans Meier 40</t>
   </si>
   <si>
-    <t>John Doe 41</t>
+    <t>Hans Meier 41</t>
   </si>
   <si>
     <t>John Doe 42</t>
   </si>
   <si>
-    <t>John Doe 43</t>
-  </si>
-  <si>
-    <t>Hans Meier 44</t>
+    <t>Ivan Horvat 43</t>
+  </si>
+  <si>
+    <t>Fred Nurk 44</t>
   </si>
   <si>
     <t>Hans Meier 45</t>
   </si>
   <si>
-    <t>Hans Meier 46</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 47</t>
-  </si>
-  <si>
-    <t>Fred Nurk 48</t>
-  </si>
-  <si>
-    <t>John Doe 49</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 50</t>
-  </si>
-  <si>
-    <t>Hans Meier 51</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 52</t>
-  </si>
-  <si>
-    <t>Hans Meier 53</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 54</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 55</t>
-  </si>
-  <si>
-    <t>Fred Nurk 56</t>
-  </si>
-  <si>
-    <t>Hans Meier 57</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 58</t>
-  </si>
-  <si>
-    <t>Fred Nurk 59</t>
-  </si>
-  <si>
-    <t>John Doe 60</t>
-  </si>
-  <si>
-    <t>Fred Nurk 61</t>
-  </si>
-  <si>
-    <t>John Doe 62</t>
-  </si>
-  <si>
-    <t>Fred Nurk 63</t>
-  </si>
-  <si>
-    <t>Hans Meier 64</t>
+    <t>Fred Nurk 46</t>
+  </si>
+  <si>
+    <t>Hans Meier 47</t>
+  </si>
+  <si>
+    <t>Hans Meier 48</t>
+  </si>
+  <si>
+    <t>Hans Meier 49</t>
+  </si>
+  <si>
+    <t>Hans Meier 50</t>
+  </si>
+  <si>
+    <t>Fred Nurk 51</t>
+  </si>
+  <si>
+    <t>John Doe 52</t>
+  </si>
+  <si>
+    <t>Fred Nurk 53</t>
+  </si>
+  <si>
+    <t>John Doe 54</t>
+  </si>
+  <si>
+    <t>Fred Nurk 55</t>
+  </si>
+  <si>
+    <t>Hans Meier 56</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 57</t>
+  </si>
+  <si>
+    <t>Hans Meier 58</t>
+  </si>
+  <si>
+    <t>Hans Meier 59</t>
+  </si>
+  <si>
+    <t>Fred Nurk 60</t>
+  </si>
+  <si>
+    <t>John Doe 61</t>
+  </si>
+  <si>
+    <t>Fred Nurk 62</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 63</t>
+  </si>
+  <si>
+    <t>Fred Nurk 64</t>
   </si>
   <si>
     <t>Fred Nurk 65</t>
   </si>
   <si>
-    <t>Fred Nurk 66</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 67</t>
-  </si>
-  <si>
-    <t>Hans Meier 68</t>
+    <t>John Doe 66</t>
+  </si>
+  <si>
+    <t>Hans Meier 67</t>
+  </si>
+  <si>
+    <t>Fred Nurk 68</t>
   </si>
   <si>
     <t>Ivan Horvat 69</t>
   </si>
   <si>
-    <t>Hans Meier 70</t>
-  </si>
-  <si>
-    <t>Fred Nurk 71</t>
-  </si>
-  <si>
-    <t>John Doe 72</t>
-  </si>
-  <si>
-    <t>John Doe 73</t>
-  </si>
-  <si>
-    <t>Fred Nurk 74</t>
-  </si>
-  <si>
-    <t>Hans Meier 75</t>
-  </si>
-  <si>
-    <t>Hans Meier 76</t>
+    <t>Fred Nurk 70</t>
+  </si>
+  <si>
+    <t>John Doe 71</t>
+  </si>
+  <si>
+    <t>Fred Nurk 72</t>
+  </si>
+  <si>
+    <t>Fred Nurk 73</t>
+  </si>
+  <si>
+    <t>Hans Meier 74</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 75</t>
+  </si>
+  <si>
+    <t>John Doe 76</t>
   </si>
   <si>
     <t>Hans Meier 77</t>
   </si>
   <si>
-    <t>Fred Nurk 78</t>
-  </si>
-  <si>
-    <t>Fred Nurk 79</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 80</t>
-  </si>
-  <si>
-    <t>Hans Meier 81</t>
-  </si>
-  <si>
-    <t>Hans Meier 82</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 83</t>
-  </si>
-  <si>
-    <t>John Doe 84</t>
-  </si>
-  <si>
-    <t>Fred Nurk 85</t>
+    <t>John Doe 78</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 79</t>
+  </si>
+  <si>
+    <t>John Doe 80</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 81</t>
+  </si>
+  <si>
+    <t>John Doe 82</t>
+  </si>
+  <si>
+    <t>Hans Meier 83</t>
+  </si>
+  <si>
+    <t>Hans Meier 84</t>
+  </si>
+  <si>
+    <t>John Doe 85</t>
   </si>
   <si>
     <t>Fred Nurk 86</t>
   </si>
   <si>
-    <t>Ivan Horvat 87</t>
+    <t>Fred Nurk 87</t>
   </si>
   <si>
     <t>John Doe 88</t>
   </si>
   <si>
-    <t>John Doe 89</t>
-  </si>
-  <si>
-    <t>John Doe 90</t>
-  </si>
-  <si>
-    <t>Fred Nurk 91</t>
-  </si>
-  <si>
-    <t>Fred Nurk 92</t>
-  </si>
-  <si>
-    <t>John Doe 93</t>
-  </si>
-  <si>
-    <t>Fred Nurk 94</t>
-  </si>
-  <si>
-    <t>John Doe 95</t>
-  </si>
-  <si>
-    <t>Fred Nurk 96</t>
+    <t>Hans Meier 89</t>
+  </si>
+  <si>
+    <t>Hans Meier 90</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 91</t>
+  </si>
+  <si>
+    <t>Hans Meier 92</t>
+  </si>
+  <si>
+    <t>Fred Nurk 93</t>
+  </si>
+  <si>
+    <t>John Doe 94</t>
+  </si>
+  <si>
+    <t>Hans Meier 95</t>
+  </si>
+  <si>
+    <t>Hans Meier 96</t>
   </si>
   <si>
     <t>John Doe 97</t>
@@ -373,37 +397,13 @@
     <t>Ivan Horvat 98</t>
   </si>
   <si>
-    <t>John Doe 99</t>
-  </si>
-  <si>
-    <t>Hans Meier 100</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 101</t>
-  </si>
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2021 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+    <t>Ivan Horvat 99</t>
+  </si>
+  <si>
+    <t>John Doe 100</t>
+  </si>
+  <si>
+    <t>John Doe 101</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -430,7 +430,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -458,130 +536,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="54"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1072,40 +1026,40 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1120,13 +1074,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1179,6 +1136,7 @@
     <cellStyle name="Total" xfId="59"/>
     <cellStyle name="Vérification" xfId="60"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1280,20 +1238,20 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Valeurs" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" compactData="0" updatedVersion="2" indent="0" showMemberPropertyTips="1">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1350,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScalePageLayoutView="0" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
@@ -1378,1402 +1336,1402 @@
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>2900</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1700</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>8700</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44470</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>9100</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>7300</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>6300</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44470</v>
       </c>
       <c r="D10">
-        <v>1700</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44470</v>
       </c>
       <c r="D11">
-        <v>6000</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>3500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="9">
+        <v>44470</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>7500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6">
-        <v>44470</v>
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>4900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>5300</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18">
-        <v>4900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>7600</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>4200</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="6">
-        <v>44470</v>
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>9600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>9800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="6">
-        <v>44470</v>
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>2900</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="6">
-        <v>44470</v>
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>3400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6">
-        <v>44470</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>3200</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="6">
-        <v>44470</v>
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>5400</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="6">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9">
         <v>44470</v>
       </c>
       <c r="D27">
-        <v>5300</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6">
-        <v>44470</v>
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>7600</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="9">
+        <v>44470</v>
       </c>
       <c r="D29">
-        <v>2500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="9">
+        <v>44470</v>
       </c>
       <c r="D30">
-        <v>2200</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44470</v>
       </c>
       <c r="D31">
-        <v>5900</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>9200</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>8400</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D34">
-        <v>6100</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>7400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>5000</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>6600</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38">
-        <v>8200</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="C39" s="9">
+        <v>44470</v>
       </c>
       <c r="D39">
-        <v>4500</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>3000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="6">
-        <v>44470</v>
+        <v>67</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>8600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="6">
+        <v>68</v>
+      </c>
+      <c r="C42" s="9">
         <v>44470</v>
       </c>
       <c r="D42">
-        <v>7800</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>9000</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44470</v>
       </c>
       <c r="D44">
-        <v>6800</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44470</v>
       </c>
       <c r="D45">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44470</v>
       </c>
       <c r="D46">
-        <v>4700</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>7800</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="6">
-        <v>44470</v>
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>9700</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44470</v>
       </c>
       <c r="D49">
-        <v>1200</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6">
         <v>44470</v>
       </c>
       <c r="D50">
-        <v>1400</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44470</v>
       </c>
       <c r="D51">
-        <v>3500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D52">
-        <v>4400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>9200</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C54" s="6">
         <v>44470</v>
       </c>
       <c r="D54">
-        <v>3300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>5200</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>5700</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
       </c>
       <c r="D57">
-        <v>7000</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>9500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="6">
-        <v>44470</v>
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>5500</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="6">
-        <v>44470</v>
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>1200</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>3200</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="C62" s="9">
+        <v>44470</v>
       </c>
       <c r="D62">
-        <v>3600</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="6">
-        <v>44470</v>
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>4700</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>1100</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="6">
-        <v>44470</v>
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
       </c>
       <c r="D65">
-        <v>7700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>2400</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="C67" s="9">
+        <v>44470</v>
       </c>
       <c r="D67">
-        <v>1900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+      <c r="C68" s="6">
+        <v>44470</v>
       </c>
       <c r="D68">
-        <v>7000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>2000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>8300</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="C71" s="9">
+        <v>44470</v>
       </c>
       <c r="D71">
-        <v>5600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="6">
-        <v>44470</v>
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>8800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>6500</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>7000</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C75" s="6">
         <v>44470</v>
       </c>
       <c r="D75">
-        <v>8500</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D76">
-        <v>3400</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D77">
-        <v>8300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="C78" s="6">
+        <v>44470</v>
       </c>
       <c r="D78">
-        <v>1400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>8000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>1700</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D81">
-        <v>6000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D82">
-        <v>4500</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="6">
-        <v>44470</v>
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
       </c>
       <c r="D83">
-        <v>1200</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="6">
-        <v>44470</v>
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>5500</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D85">
-        <v>1800</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>3000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="6">
-        <v>44470</v>
+        <v>113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
       </c>
       <c r="D87">
-        <v>5400</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="6">
+        <v>114</v>
+      </c>
+      <c r="C88" s="9">
         <v>44470</v>
       </c>
       <c r="D88">
-        <v>1600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="6">
-        <v>44470</v>
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>2700</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>4300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D91">
-        <v>3100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" t="s">
-        <v>25</v>
+        <v>118</v>
+      </c>
+      <c r="C92" s="9">
+        <v>44470</v>
       </c>
       <c r="D92">
-        <v>3400</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>2500</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>3100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D95">
-        <v>1700</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D96">
-        <v>9900</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D97">
-        <v>5700</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D98">
-        <v>8200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D99">
-        <v>1300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D100">
-        <v>4500</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="6">
+        <v>127</v>
+      </c>
+      <c r="C101" s="9">
         <v>44470</v>
       </c>
       <c r="D101">
-        <v>3900</v>
+        <v>8900</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView zoomScalePageLayoutView="0" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2875,42 +2833,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="8" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
